--- a/etc/test/search %23#.xlsx
+++ b/etc/test/search %23#.xlsx
@@ -110,92 +110,98 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>仕様について確認させてください。
+createExcelToJson関数に渡すプロパティのうち、「requiredX」が必須となっています。
+これは、省略可としてもよろしいのではないでしょうか。（省略した場合、一番左の列が指定されたものとする）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本QA No.1 でライブラリのライセンスは MIT License との回答をいただきました。
+しかし、こちらで頂戴しているファイルを確認しましたが、ラインセンスについての記述が見当たりませんでした。
+ライセンスについては、後日記載予定という認識でよろしいいでしょうか。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消去ボタンを押すと、キーワードは消えるがハイライトがそのまま残る</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリ(ExcelToJson.js) のライセンスが存在しない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角スペースで区切って複数のキーワードを入れると、一つのキーワードとして認識される。半角スペース同様、二つのキーワードとして認識されるべき。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8月2日
+B社-渡辺</t>
+  </si>
+  <si>
+    <t>8月3日
+B社-渡辺</t>
+  </si>
+  <si>
+    <t>8月5日
+B社-渡辺</t>
+  </si>
+  <si>
+    <t>8月4日
+B社-渡部</t>
+  </si>
+  <si>
+    <t>8月2日
+山田</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>8月4日
+安田</t>
+  </si>
+  <si>
+    <t>構いません。よろしくお願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>省略可、としてください。
+併せて、設計書についても修正をお願いいたします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご認識どおりです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【クローズ】
+キーワードを消去するとともに、キーワードが変更されたことを通知するイベントを発行するように修正。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【確認待ち】
+半角スペースと全角スペースを同一視するようにしました。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付・記入者2</t>
+  </si>
+  <si>
     <t>ライブラリに不具合があるようです。
 ・タグ（&lt;br&gt;など）の表示が消える。
 こちらでエスケープ処理を加えても構いませんか。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕様について確認させてください。
-createExcelToJson関数に渡すプロパティのうち、「requiredX」が必須となっています。
-これは、省略可としてもよろしいのではないでしょうか。（省略した場合、一番左の列が指定されたものとする）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本QA No.1 でライブラリのライセンスは MIT License との回答をいただきました。
-しかし、こちらで頂戴しているファイルを確認しましたが、ラインセンスについての記述が見当たりませんでした。
-ライセンスについては、後日記載予定という認識でよろしいいでしょうか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>消去ボタンを押すと、キーワードは消えるがハイライトがそのまま残る</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライブラリ(ExcelToJson.js) のライセンスが存在しない</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タグ&lt; &gt; が含まれると、表示が崩れる。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全角スペースで区切って複数のキーワードを入れると、一つのキーワードとして認識される。半角スペース同様、二つのキーワードとして認識されるべき。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8月2日
-B社-渡辺</t>
-  </si>
-  <si>
-    <t>8月3日
-B社-渡辺</t>
-  </si>
-  <si>
-    <t>8月5日
-B社-渡辺</t>
-  </si>
-  <si>
-    <t>8月4日
-B社-渡部</t>
-  </si>
-  <si>
-    <t>8月2日
-山田</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>8月4日
-安田</t>
-  </si>
-  <si>
-    <t>構いません。よろしくお願いいたします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>省略可、としてください。
-併せて、設計書についても修正をお願いいたします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ご認識どおりです。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【クローズ】
-キーワードを消去するとともに、キーワードが変更されたことを通知するイベントを発行するように修正。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【確認待ち】
-半角スペースと全角スペースを同一視するようにしました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付・記入者2</t>
+    <t>&lt;, &gt;, &amp; が含まれると、検索できない。 (", ' は検索できる)</t>
+    <rPh sb="15" eb="17">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -395,19 +401,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -498,6 +491,25 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -507,6 +519,7 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -514,16 +527,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,14 +537,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:E9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E9"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="No." dataDxfId="5"/>
-    <tableColumn id="2" name="日付・記入者" dataDxfId="4"/>
-    <tableColumn id="3" name="質問/不具合" dataDxfId="3"/>
-    <tableColumn id="4" name="日付・記入者2" dataDxfId="2"/>
-    <tableColumn id="5" name="回答/修正内容" dataDxfId="1"/>
+    <tableColumn id="1" name="No." dataDxfId="4"/>
+    <tableColumn id="2" name="日付・記入者" dataDxfId="3"/>
+    <tableColumn id="3" name="質問/不具合" dataDxfId="2"/>
+    <tableColumn id="4" name="日付・記入者2" dataDxfId="1"/>
+    <tableColumn id="5" name="回答/修正内容" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -833,7 +839,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -855,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -872,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -886,13 +892,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="67.5">
@@ -903,13 +909,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="81">
@@ -920,13 +926,13 @@
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40.5">
@@ -937,13 +943,13 @@
         <v>20</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="27">
@@ -954,10 +960,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>4</v>
@@ -971,7 +977,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="s">
@@ -986,13 +992,13 @@
         <v>22</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
